--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value303.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value303.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.29882304182434</v>
+        <v>0.7925423383712769</v>
       </c>
       <c r="B1">
-        <v>1.325308330111111</v>
+        <v>1.213666796684265</v>
       </c>
       <c r="C1">
-        <v>1.438431770053333</v>
+        <v>2.465372800827026</v>
       </c>
       <c r="D1">
-        <v>2.071301297614622</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>3.522119870981899</v>
+        <v>1.761898636817932</v>
       </c>
     </row>
   </sheetData>
